--- a/output/fit_clients/fit_round_29.xlsx
+++ b/output/fit_clients/fit_round_29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8025622113.046857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004910443212514959</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.478996501499739</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8886325310464314</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.478996501499739</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6143908855.458339</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004977676876899331</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.918317996106489</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9119238001387975</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.918317996106489</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5826943417.550824</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003034335477190108</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.086618168290423</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9782023251859051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-6.086618168290423</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4164204848.355285</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004041519020435818</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.10710149079606</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7722997247035922</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.10710149079606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6153475285.080564</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002364038094701477</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.804348310075322</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.7866103132057164</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.804348310075322</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8618138541.09832</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001078048350172606</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.356848264644591</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.3713906763541037</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.356848264644591</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6795278125.153864</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003094488364029272</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.296452153867148</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9317038170890068</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.296452153867148</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4714426938.335122</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004870425962406266</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.997495939872433</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9261039056723487</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-5.997495939872433</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4268732927.900649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004639730094654802</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2302549163042793</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.587217147217354</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.5323961985356686</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.587217147217354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3307764239.940679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001197411661524907</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.931473867587635</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7135410859000451</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.931473867587635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6062938372.948326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002151531210413225</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.036243634665834</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9637593762237374</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.036243634665834</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5956601797.344541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003598586666780413</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.124732989897371</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9799547379638223</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.124732989897371</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7194718762.301579</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.00312336259235905</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
         <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.352520376942604</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8337720224904908</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.352520376942604</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>8026467635.99658</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003720125792665136</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.876914925945277</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9446508083628189</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.876914925945277</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6437196003.504294</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004633060368290818</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.685316377255133</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8725859123752708</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.685316377255133</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5748610765.073523</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002805378503894076</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.957541556399652</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9510725462849119</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.957541556399652</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4922803728.959119</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008677968845401627</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.54460815037929</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9755398554958111</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.54460815037929</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4010614174.259037</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001604650838696964</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9641604577111348</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.992453754705019</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.275582624808037</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.992453754705019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5743958507.346773</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001058819437608111</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6956845641884375</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.881167053879443</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.9788807708164267</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.881167053879443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7666279393.479545</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004195561435935535</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.15217491913142</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.7812403299004084</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.15217491913142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4587106754.422422</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005281340075721728</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.233246074853787</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8754393221667897</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-6.233246074853787</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6665048468.717612</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001706282971626584</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.091680539402942</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8333215970634357</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.091680539402942</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5697012033.246131</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003213886365253258</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.4484192747808975</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.050938293544994</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9135523888884356</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-4.050938293544994</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5102478941.250774</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002827304834463173</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
         <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.004315913379908</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9075616285783477</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.004315913379908</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4273365465.352196</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001072087540921629</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.988019394606023</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7727857181216361</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.988019394606023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8657848525.560413</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002948828189095598</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
         <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.05662025952070333</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.180430490053738</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.3974989920046035</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.180430490053738</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8537895786.489716</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.00483419188135617</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
         <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.388457723499025</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8525980388524794</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.388457723499025</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6766129138.600654</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001606677406005156</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.143538380767247</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9939197744339296</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.143538380767247</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8000727510.40701</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003854448524969304</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.231799759596263</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.300784143696397</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.231799759596263</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5660267172.34921</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003122547773594924</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.434947258047767</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9272899320157575</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.434947258047767</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4470382898.05353</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009823126112282624</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.231063863522236</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9227390130687505</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.231063863522236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5745044641.177855</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003007183492437125</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.481946390139933</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.841040798085457</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.481946390139933</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7886131631.017691</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003748186503020134</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.185411532301408</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7916736844077701</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.185411532301408</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5927698285.454828</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002630809377902304</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.381785858387779</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9338310642584808</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.381785858387779</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7977043667.898986</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002831111974871829</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.612919668690406</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9807206998777992</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.612919668690406</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6670220716.443439</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00535586752934714</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.535003933720684</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9742468005724052</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.535003933720684</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>2921581841.286813</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.005217072487342763</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.9302723054796268</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.534493245043408</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.277760289395886</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.534493245043408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4700324386.456873</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.0026769566796998</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.232808959758896</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8817870870159211</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-5.232808959758896</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5073849710.663676</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004097438662786647</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.3770658093060662</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.806623832345389</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.8017974788091137</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.806623832345389</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7309903083.419185</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001098809178665172</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.964965019325028</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9009787723803923</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.964965019325028</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5441978048.338029</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004124756293298137</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3662709321180311</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.841761388795563</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.8044683975723949</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.841761388795563</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4607534050.317153</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00440604541025764</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.507511546467149</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9274346851322862</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.507511546467149</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6862983987.499336</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001959332507846025</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.2194568521811502</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.736470364442392</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.5129190720504652</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.736470364442392</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5567796082.743751</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001684705563820273</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4079091860301228</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.899124875184169</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.8154981759165811</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.899124875184169</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7660701883.501461</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004213078594317464</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.38677716944251</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7796600553946922</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.38677716944251</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8300362524.227361</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002949660072553275</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.861134749337584</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8876666184467402</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.861134749337584</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7516328923.722578</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002958372688659119</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.177474122475475</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9669815371151893</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.177474122475475</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3853131449.50338</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004899980427093003</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.493772302441672</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8420601960510532</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.493772302441672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8278393317.024694</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002882341393917557</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.11119823620607</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.002863181143046</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.11119823620607</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4544795118.607195</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005678890416553548</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.429424297980987</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9186908091595251</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.429424297980987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5654639179.878937</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002082729701712115</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.548941809994915</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8210360472999677</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.548941809994915</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7097436949.054262</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002993461949124994</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.9643833839313023</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.376704229736176</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.305467443822257</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.376704229736176</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6410016944.560202</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00440036294235285</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.906365967362023</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.7710140322194491</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.906365967362023</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5655371596.424421</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003443768571463123</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.935064533090115</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9064678056995913</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.935064533090115</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4945903953.204314</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002244810475878123</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>4</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4.423573769268167</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9166748748639926</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-4.423573769268167</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8494676929.212048</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003442515882047012</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.345355986263725</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.841040798085457</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.345355986263725</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6783489458.014168</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002870491416818455</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.008269479358447</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7727857181216361</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.008269479358447</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6480719092.498644</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002829920915982304</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.118705135111017</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8225368332486996</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.118705135111017</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4624763309.385703</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00341360714836837</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.822052279279937</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8310986147895377</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.822052279279937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4608651933.537952</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005719165274911454</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.828240058730094</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9019304285860382</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.828240058730094</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5315650991.721568</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003196930840216362</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.19758868006303</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8460312971887735</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.19758868006303</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6665148298.626745</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005331110589723446</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.323865600870668</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8812088789293152</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.323865600870668</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4241500116.902235</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004249382573036617</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.347322731305206</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8925468247952046</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.347322731305206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6867124132.025139</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004682236139388641</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2003032585295288</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.838454762425636</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.5775189829481856</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.838454762425636</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4398325796.50679</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003033761724824024</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.397951660585589</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8560818281852185</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.397951660585589</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6868413970.091635</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005514654581345808</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.680500891918735</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9329119502100994</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.680500891918735</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5425739035.534146</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002578515703308729</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.810734394249929</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7441863016385701</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.810734394249929</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4099306411.330229</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008550007645647335</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.016852178052099</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9439977882379307</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.016852178052099</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6084863735.164537</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003831466540624258</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.855004717804641</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9029112790795595</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.855004717804641</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4065919160.925794</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002901793267728539</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.082554619036474</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8419331486259934</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-6.082554619036474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7907517621.036776</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001666437497632597</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4799059627011261</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.384772920674337</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.035528872773326</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-4.384772920674337</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7283115258.246716</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001180181333971418</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.019691561493136</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9665931883507797</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.019691561493136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6267344595.925687</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004474744767805007</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.552467897422501</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8436827022210525</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.552467897422501</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8110578207.189209</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002790233186577118</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.069454741417771</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.7825092203679453</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.069454741417771</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6493997104.182407</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.001932677987008223</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.450880325157245</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8890549345172745</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.450880325157245</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7567174246.604123</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005539547847606208</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.169059700636298</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.00224809031992</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-6.169059700636298</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5519465193.542582</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004609111817194966</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.980639467410051</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9140970796668626</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.980639467410051</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6746510456.67445</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001827569461582651</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.311019693598282</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9422920310380068</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.311019693598282</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6562079877.492216</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003043005490123327</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.65887715314837</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.934749274566952</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.65887715314837</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5343008751.89739</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004034145128609637</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.3074995312558612</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.055624356542184</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.7597747576345609</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-6.055624356542184</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6588262138.528611</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005438415348575722</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.117421739863551</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9342330319195824</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.117421739863551</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7465416599.363822</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002229473308055453</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>11</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8564354758822554</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.648865827334656</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.092821961273491</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.648865827334656</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7673598026.718489</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005244036758342121</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.2528863478390895</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.12963280895936</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.52904077807821</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.12963280895936</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5823835189.973553</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003698420320333607</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.55691382121072</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9027625937756014</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.55691382121072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7165712269.403252</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002295623141383226</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.3119486420077011</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.420006195587351</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.6640014724010544</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.420006195587351</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4729848551.929553</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001302398398086368</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.346735137891776</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9588500534266595</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.346735137891776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6704867794.756791</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004697062966245284</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.54970780169872</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8161882646633387</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.54970780169872</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7426778444.773083</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004288542768589774</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.721839776428165</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9125997714233811</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.721839776428165</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6253136980.543543</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003656549020584355</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.545760249927677</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9104229176630529</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.545760249927677</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6911151365.777429</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004333715139328828</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.9967239344704</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8442866104298826</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.9967239344704</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4730095586.613864</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003657850452215005</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.435258951128427</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.9873964644958612</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.435258951128427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6830377073.942709</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001744497327158976</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.378933434974406</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8823340156662958</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.378933434974406</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4973018035.725126</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001390405830594008</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.182198790915524</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.031517349097167</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.182198790915524</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6953202538.648911</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002630481583471357</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.877983881459754</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.8965633500697405</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.877983881459754</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7126441669.489999</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002180355652792166</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.037185739710722</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8644351387012762</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.037185739710722</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5052632002.328366</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003749247892292229</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.085103551187659</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8786798110353199</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.085103551187659</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8608104533.152708</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004397196869937548</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.760670483563163</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8499838456537271</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.760670483563163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3909511215.45605</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004754043252273825</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.664944430842223</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8872435540194937</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.664944430842223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6189118333.728885</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002475282764086959</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.8443774262751164</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.293461672417353</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.082338419007962</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.293461672417353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5276361232.399862</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001330390279014887</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.4956927293021214</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.646342658763377</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8502675826227839</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.646342658763377</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_29.xlsx
+++ b/output/fit_clients/fit_round_29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8025622113.046857</v>
+        <v>2260174825.773222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004910443212514959</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+        <v>0.09558353770256187</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04085224048121743</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1130087443.36378</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6143908855.458339</v>
+        <v>1595550860.096963</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004977676876899331</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>0.1164669671890025</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.045294232784865</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>797775407.1561419</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5826943417.550824</v>
+        <v>4031924380.669377</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003034335477190108</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1478699251333588</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0265372002582469</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2015962206.574025</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4164204848.355285</v>
+        <v>2938155327.925179</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004041519020435818</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.0936342499175977</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03142212723540497</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1469077737.639963</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6153475285.080564</v>
+        <v>2441770026.138526</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002364038094701477</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>0.1407478695803535</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04199578241532387</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1220884994.668258</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8618138541.09832</v>
+        <v>2992552733.164928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001078048350172606</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+        <v>0.07996561805911533</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04770988237609597</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1496276331.945922</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6795278125.153864</v>
+        <v>3019931505.044018</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003094488364029272</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+        <v>0.1844392959449792</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03217310688426973</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1509965811.873033</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4714426938.335122</v>
+        <v>2155589564.39114</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004870425962406266</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+        <v>0.1435903971879078</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02871926458381835</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1077794787.014248</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4268732927.900649</v>
+        <v>4124892573.410392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004639730094654802</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1832017150531906</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03317894953863634</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2062446318.037885</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3307764239.940679</v>
+        <v>4247589592.600533</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001197411661524907</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1486153021361391</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04407817369638824</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2123794826.084236</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6062938372.948326</v>
+        <v>2488643603.212237</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002151531210413225</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
+        <v>0.1686453224793882</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0426093287599066</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1244321772.577008</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5956601797.344541</v>
+        <v>3949203840.332539</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003598586666780413</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
+        <v>0.07673691354730477</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02945887397462005</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1974601977.472742</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7194718762.301579</v>
+        <v>3065817988.699613</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00312336259235905</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
+        <v>0.1461963490389771</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04358789418592438</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1532909023.829394</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>8026467635.99658</v>
+        <v>1626602506.838909</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003720125792665136</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
+        <v>0.1078935371341702</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03033890976322967</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>813301367.4396257</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6437196003.504294</v>
+        <v>1768926349.89991</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004633060368290818</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
+        <v>0.08780359764998664</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03961059610724877</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>884463270.9059604</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5748610765.073523</v>
+        <v>4920497196.972032</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002805378503894076</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+        <v>0.1561537677304984</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04396018608076989</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2460248587.392306</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>504</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3551415127.978894</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1284678719916329</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02955239383372379</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>536</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4922803728.959119</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0008677968845401627</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1775707554.088918</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4010614174.259037</v>
+        <v>1191580710.248289</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001604650838696964</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1775707163809394</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02291819741848593</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>595790430.7674105</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5743958507.346773</v>
+        <v>1802551627.688232</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001058819437608111</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1190685021121333</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02209524852031482</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>901275861.0167832</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7666279393.479545</v>
+        <v>1784035459.440629</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004195561435935535</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
+        <v>0.09857347835432914</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03947877247030395</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>892017786.0713398</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4587106754.422422</v>
+        <v>3608043295.906927</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005281340075721728</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>0.140788621612748</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04142401049042197</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1804021672.858408</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6665048468.717612</v>
+        <v>1443473301.69365</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001706282971626584</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
+        <v>0.1830485648507046</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05187573787408684</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>721736646.1199429</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5697012033.246131</v>
+        <v>2993221223.830686</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003213886365253258</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.112344527619927</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02486538921255717</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1496610647.427192</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5102478941.250774</v>
+        <v>1253727618.171838</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002827304834463173</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
+        <v>0.115144989812521</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02199078210289005</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>626863814.4856869</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4273365465.352196</v>
+        <v>1224337438.011584</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001072087540921629</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1207048352591989</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03418281282869782</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>612168745.8272581</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8657848525.560413</v>
+        <v>4102254259.338367</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002948828189095598</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
+        <v>0.1448454167869349</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01924457837597979</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2051127134.540139</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8537895786.489716</v>
+        <v>2393804190.975483</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00483419188135617</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
+        <v>0.1037847608240855</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04742621085885031</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1196902053.906757</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6766129138.600654</v>
+        <v>4399581421.963477</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001606677406005156</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>0.1398256892062511</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02940558459620958</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2199790699.982713</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8000727510.40701</v>
+        <v>1704071417.794449</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003854448524969304</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
+        <v>0.08894227335921621</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03472459437707875</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>852035712.4674158</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5660267172.34921</v>
+        <v>1500118138.575545</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003122547773594924</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
+        <v>0.08215072956226416</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04272842018598785</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>750058949.9276065</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4470382898.05353</v>
+        <v>1460035174.468742</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009823126112282624</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07320218539407104</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03276294040859199</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>730017647.1157801</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5745044641.177855</v>
+        <v>2173235668.631952</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003007183492437125</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
+        <v>0.2041363853867205</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03789854543609883</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1086617900.135737</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7886131631.017691</v>
+        <v>1175528592.149232</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003748186503020134</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
+        <v>0.1019779620019443</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01726634917135683</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>587764304.9604522</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5927698285.454828</v>
+        <v>1183533988.263249</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002630809377902304</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
+        <v>0.0712024299760035</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03672221961986298</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>591766972.2526886</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7977043667.898986</v>
+        <v>2844113548.187065</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002831111974871829</v>
-      </c>
-      <c r="G36" t="b">
+        <v>0.1379857101745134</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02097838683775329</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="H36" t="n">
-        <v>8</v>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1422056768.262043</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6670220716.443439</v>
+        <v>2629897777.260026</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00535586752934714</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.07485947047529688</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02857307850250916</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1314949002.355949</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2921581841.286813</v>
+        <v>1370557611.508559</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005217072487342763</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1176572746526008</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02935078536966073</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>685278873.0338705</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4700324386.456873</v>
+        <v>1493354462.559839</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0026769566796998</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
+        <v>0.13183843779895</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02851790441455287</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>746677302.4853328</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5073849710.663676</v>
+        <v>1480569392.756218</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004097438662786647</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
+        <v>0.09861027655124344</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0548624544486454</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>740284667.2397497</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7309903083.419185</v>
+        <v>2885479479.429652</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001098809178665172</v>
-      </c>
-      <c r="G41" t="b">
+        <v>0.1179682930895017</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02866006454842834</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
-        <v>8</v>
+      <c r="I41" t="n">
+        <v>9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1442739727.111201</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5441978048.338029</v>
+        <v>3719367633.329049</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004124756293298137</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
+        <v>0.1024417543993356</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04510793088076125</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1859683826.426235</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4607534050.317153</v>
+        <v>2367979132.663644</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00440604541025764</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.1803104020080507</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01957058426957285</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1183989628.057556</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6862983987.499336</v>
+        <v>2177527394.826595</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001959332507846025</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
+        <v>0.07656895092854335</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02867093086224301</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1088763838.957448</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5567796082.743751</v>
+        <v>1740283889.18759</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001684705563820273</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1192636194718744</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05137948981012034</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>870141909.1058105</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>525</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3912394712.555179</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1150800536046274</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05779515146545585</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>406</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7660701883.501461</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.004213078594317464</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
+      <c r="I46" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1956197320.611034</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8300362524.227361</v>
+        <v>4576294601.537455</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002949660072553275</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1276886134300499</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04049170511227979</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2288147332.397831</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3830452434.236144</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.06984878849858588</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02612253568682511</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7516328923.722578</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.002958372688659119</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1915226261.140535</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3853131449.50338</v>
+        <v>1226996095.112638</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004899980427093003</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1278007848535215</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03688424896502442</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>613498121.8609158</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8278393317.024694</v>
+        <v>3002370257.141685</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002882341393917557</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
+        <v>0.1141570479690981</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03864653936513777</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1501185188.048726</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4544795118.607195</v>
+        <v>946377518.11017</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005678890416553548</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1765788218351588</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04749851644294674</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>473188851.4696479</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5654639179.878937</v>
+        <v>4298087187.247937</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002082729701712115</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
+        <v>0.1310656124579385</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04086419933868491</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2149043632.361196</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7097436949.054262</v>
+        <v>3475723119.522472</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002993461949124994</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
+        <v>0.1712412284447253</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02266352470337142</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1737861559.108937</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6410016944.560202</v>
+        <v>3779930687.360528</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00440036294235285</v>
-      </c>
-      <c r="G54" t="b">
+        <v>0.1537914649216618</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04454079511228991</v>
+      </c>
+      <c r="H54" t="b">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>7</v>
+      <c r="I54" t="n">
+        <v>9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1889965390.271047</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5655371596.424421</v>
+        <v>3245330294.804245</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003443768571463123</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>9</v>
+        <v>0.1521763916214237</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02880006372461595</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1622665088.819149</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4945903953.204314</v>
+        <v>1274679347.409966</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002244810475878123</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
+        <v>0.1567848794472211</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03763929963450034</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>637339749.0864115</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8494676929.212048</v>
+        <v>4021961595.377184</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003442515882047012</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
+        <v>0.1136414287477129</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01826102011159893</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2010980887.669204</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6783489458.014168</v>
+        <v>1359193340.016587</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002870491416818455</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>6</v>
+        <v>0.182707305722542</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03407237930268275</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>679596713.7764512</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6480719092.498644</v>
+        <v>4380882989.214593</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002829920915982304</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
+        <v>0.1175927511507848</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03476188701880446</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2190441451.975648</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4624763309.385703</v>
+        <v>2837230596.254999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00341360714836837</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.2010977427696014</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02852599972192873</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1418615351.212306</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4608651933.537952</v>
+        <v>3157119995.650781</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005719165274911454</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
+        <v>0.1255623826292303</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03067534504018615</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1578559963.268339</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5315650991.721568</v>
+        <v>2117980679.152576</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003196930840216362</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
+        <v>0.1760455578560035</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03060880293545517</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1058990415.158984</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6665148298.626745</v>
+        <v>3461158680.253696</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005331110589723446</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
+        <v>0.08293048894645294</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03065521959841174</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1730579426.367321</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4241500116.902235</v>
+        <v>3431985784.365843</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004249382573036617</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1585546898163951</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03257688587740334</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1715992887.813461</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6867124132.025139</v>
+        <v>5724538324.387303</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004682236139388641</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
+        <v>0.1670070682954197</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0197478758696107</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2862269077.650334</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4398325796.50679</v>
+        <v>4383302392.220425</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003033761724824024</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
+        <v>0.1338749801667415</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03988638294932972</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2191651190.031095</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6868413970.091635</v>
+        <v>2711043914.706801</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005514654581345808</v>
-      </c>
-      <c r="G67" t="b">
+        <v>0.06237730672250541</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04311116661412738</v>
+      </c>
+      <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="H67" t="n">
-        <v>4</v>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1355521999.843505</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5425739035.534146</v>
+        <v>5937799854.122938</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002578515703308729</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>6</v>
+        <v>0.132100571077375</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04254280923952417</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2968900040.062556</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4099306411.330229</v>
+        <v>2139533828.671478</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008550007645647335</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>5</v>
+        <v>0.1605908197495512</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03691735881606988</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1069766937.11968</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6084863735.164537</v>
+        <v>3710641180.539939</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003831466540624258</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6</v>
+        <v>0.07492728736501807</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0353735195698547</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1855320613.296503</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4065919160.925794</v>
+        <v>3700704988.182148</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002901793267728539</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1854760882955784</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03266591683274968</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1850352502.612987</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7907517621.036776</v>
+        <v>2139509851.864368</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001666437497632597</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>6</v>
+        <v>0.1041085020954</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03694587157359694</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1069754849.482869</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7283115258.246716</v>
+        <v>2685745281.348618</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001180181333971418</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
+        <v>0.06788106437778139</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04116039175722204</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1342872665.223854</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6267344595.925687</v>
+        <v>2665195445.725057</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004474744767805007</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
+        <v>0.1769402459154635</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03230319226897672</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1332597817.004427</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8110578207.189209</v>
+        <v>2435035456.721047</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002790233186577118</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5</v>
+        <v>0.1525399954556434</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02417311235675671</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1217517651.450842</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6493997104.182407</v>
+        <v>3694460016.31714</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001932677987008223</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.08530612767613961</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02285695364996487</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1847229979.860965</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7567174246.604123</v>
+        <v>2226398430.855931</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005539547847606208</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>9</v>
+        <v>0.1579586478292495</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0198895578225633</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1113199310.157624</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5519465193.542582</v>
+        <v>3905685991.297722</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004609111817194966</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.1239125720509393</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05467833144194164</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1952842967.937195</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6746510456.67445</v>
+        <v>1657080240.279943</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001827569461582651</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>6</v>
+        <v>0.1091824686948284</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03660488501245367</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>828540181.6153072</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6562079877.492216</v>
+        <v>3563848397.180243</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003043005490123327</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>10</v>
+        <v>0.07898686916452265</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03039892093628331</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1781924176.195145</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5343008751.89739</v>
+        <v>3938938942.073649</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004034145128609637</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.09927989341034579</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02383662116435629</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1969469431.76493</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6588262138.528611</v>
+        <v>5678839235.250422</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005438415348575722</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>5</v>
+        <v>0.1838319259716378</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0280553823782941</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2839419563.404456</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7465416599.363822</v>
+        <v>1644611393.058481</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002229473308055453</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.1250071859156343</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03349581342719352</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>822305637.41475</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7673598026.718489</v>
+        <v>2359219891.318279</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005244036758342121</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>7</v>
+        <v>0.07710068386296889</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04995145415960315</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1179609897.847096</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5823835189.973553</v>
+        <v>3134093608.850117</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003698420320333607</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1406843235994938</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04930534563395798</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1567046879.18223</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7165712269.403252</v>
+        <v>2249468587.309704</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002295623141383226</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
+        <v>0.1558539260448043</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01856557337199544</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1124734355.778872</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4729848551.929553</v>
+        <v>1339386974.098724</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001302398398086368</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1655946313819036</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02884896172401099</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>669693578.1654831</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6704867794.756791</v>
+        <v>2447660546.924812</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004697062966245284</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>6</v>
+        <v>0.1590780222238701</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0340905944113959</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1223830249.102372</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7426778444.773083</v>
+        <v>2652880843.848598</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004288542768589774</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>6</v>
+        <v>0.1496816434023338</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03774139405078468</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1326440485.290648</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6253136980.543543</v>
+        <v>1639261835.532232</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003656549020584355</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>4</v>
+        <v>0.09886114072169437</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05151265230214494</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>819630921.7493597</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6911151365.777429</v>
+        <v>2079579891.117714</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004333715139328828</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>9</v>
+        <v>0.1838092092073651</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05957913813538054</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1039789906.956576</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4730095586.613864</v>
+        <v>2017027680.705876</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003657850452215005</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.097124616809548</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0295829619274174</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1008513787.563819</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>478</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3834458796.074428</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1281535853832287</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05068776443723452</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="D93" t="n">
-        <v>588</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6830377073.942709</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.001744497327158976</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>11</v>
+      <c r="I93" t="n">
+        <v>8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1917229409.161933</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4973018035.725126</v>
+        <v>2103937430.15123</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001390405830594008</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>10</v>
+        <v>0.1217340307285366</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02723823660311859</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1051968726.764995</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6953202538.648911</v>
+        <v>2874593882.313771</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002630481583471357</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>8</v>
+        <v>0.0941174577315637</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0458449037154649</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1437296949.830858</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7126441669.489999</v>
+        <v>1705516105.78756</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002180355652792166</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>8</v>
+        <v>0.1389443584515788</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03676682471650657</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>852758071.0970882</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5052632002.328366</v>
+        <v>5153939556.773367</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003749247892292229</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>8</v>
+        <v>0.1579154650944131</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02194814203987448</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2576969927.287187</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8608104533.152708</v>
+        <v>3259265274.039449</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004397196869937548</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>11</v>
+        <v>0.08914282725529846</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03017767472074533</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1629632639.117183</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3909511215.45605</v>
+        <v>2901801483.025451</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004754043252273825</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1475507631533012</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02493920326908983</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1450900720.138552</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>6189118333.728885</v>
+        <v>3881239379.192675</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002475282764086959</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
+        <v>0.1642458035122762</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01962302227731357</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1940619750.590091</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5276361232.399862</v>
+        <v>3089902215.695811</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001330390279014887</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>9</v>
+        <v>0.2227088431612388</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04795400262838859</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>11</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1544951208.582049</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_29.xlsx
+++ b/output/fit_clients/fit_round_29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2260174825.773222</v>
+        <v>1717126632.514052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09558353770256187</v>
+        <v>0.07299557121318652</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04085224048121743</v>
+        <v>0.03877800066813605</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1130087443.36378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1595550860.096963</v>
+        <v>1994673998.057861</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1164669671890025</v>
+        <v>0.1709893760683637</v>
       </c>
       <c r="G3" t="n">
-        <v>0.045294232784865</v>
+        <v>0.03331313801556601</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>797775407.1561419</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4031924380.669377</v>
+        <v>4420494256.883721</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1478699251333588</v>
+        <v>0.1050848276538335</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0265372002582469</v>
+        <v>0.02597291483871855</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2015962206.574025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2938155327.925179</v>
+        <v>4010486891.586698</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0936342499175977</v>
+        <v>0.07334014380110582</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03142212723540497</v>
+        <v>0.03476469252989005</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1469077737.639963</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2441770026.138526</v>
+        <v>1845189020.061485</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1407478695803535</v>
+        <v>0.1044920135045686</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04199578241532387</v>
+        <v>0.04005722242308123</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1220884994.668258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2992552733.164928</v>
+        <v>2024112463.58616</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07996561805911533</v>
+        <v>0.08538920588252236</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04770988237609597</v>
+        <v>0.04462403711430305</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1496276331.945922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3019931505.044018</v>
+        <v>3815972129.297309</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1844392959449792</v>
+        <v>0.176109707833172</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03217310688426973</v>
+        <v>0.025132877463663</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1509965811.873033</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2155589564.39114</v>
+        <v>1636066183.242727</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1435903971879078</v>
+        <v>0.1788238740900196</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02871926458381835</v>
+        <v>0.02989175064606632</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1077794787.014248</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4124892573.410392</v>
+        <v>5860846821.173018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1832017150531906</v>
+        <v>0.2102366462964487</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03317894953863634</v>
+        <v>0.03964913945699711</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2062446318.037885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4247589592.600533</v>
+        <v>3807466694.593554</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1486153021361391</v>
+        <v>0.1551326396315333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04407817369638824</v>
+        <v>0.03314107234579592</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2123794826.084236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2488643603.212237</v>
+        <v>3128803508.338175</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1686453224793882</v>
+        <v>0.1792484446868588</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0426093287599066</v>
+        <v>0.03845700282261809</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1244321772.577008</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3949203840.332539</v>
+        <v>4789415351.660971</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07673691354730477</v>
+        <v>0.09330813370420762</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02945887397462005</v>
+        <v>0.02272568621866001</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1974601977.472742</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3065817988.699613</v>
+        <v>3519156056.066788</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1461963490389771</v>
+        <v>0.1621765798110834</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04358789418592438</v>
+        <v>0.02816636366477908</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1532909023.829394</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1626602506.838909</v>
+        <v>1140609579.263013</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1078935371341702</v>
+        <v>0.07367521435556386</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03033890976322967</v>
+        <v>0.04003169326591839</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>813301367.4396257</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1768926349.89991</v>
+        <v>2629519762.023433</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08780359764998664</v>
+        <v>0.09384724653729722</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03961059610724877</v>
+        <v>0.04255625866445667</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>884463270.9059604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4920497196.972032</v>
+        <v>3532573657.886698</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1561537677304984</v>
+        <v>0.1389400378366303</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04396018608076989</v>
+        <v>0.04113476246686253</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2460248587.392306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3551415127.978894</v>
+        <v>3294756840.384652</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1284678719916329</v>
+        <v>0.1289640893666034</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02955239383372379</v>
+        <v>0.03270501154469509</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1775707554.088918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1191580710.248289</v>
+        <v>1176177627.568477</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1775707163809394</v>
+        <v>0.1391815626807825</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02291819741848593</v>
+        <v>0.02069173528883746</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>595790430.7674105</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1802551627.688232</v>
+        <v>2343380999.820312</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1190685021121333</v>
+        <v>0.1514411215319182</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02209524852031482</v>
+        <v>0.02379394467330134</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>901275861.0167832</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1784035459.440629</v>
+        <v>1969526386.53493</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09857347835432914</v>
+        <v>0.1015490135863371</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03947877247030395</v>
+        <v>0.03447921268443675</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>892017786.0713398</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3608043295.906927</v>
+        <v>3360313919.934934</v>
       </c>
       <c r="F22" t="n">
-        <v>0.140788621612748</v>
+        <v>0.09349966931304952</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04142401049042197</v>
+        <v>0.04248172940965763</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1804021672.858408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1443473301.69365</v>
+        <v>1440168031.684384</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1830485648507046</v>
+        <v>0.1683370597988844</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05187573787408684</v>
+        <v>0.05241324817494852</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>721736646.1199429</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2993221223.830686</v>
+        <v>2860343591.98508</v>
       </c>
       <c r="F24" t="n">
-        <v>0.112344527619927</v>
+        <v>0.1293415361526896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02486538921255717</v>
+        <v>0.02900429972717771</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1496610647.427192</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1253727618.171838</v>
+        <v>1080934410.685387</v>
       </c>
       <c r="F25" t="n">
-        <v>0.115144989812521</v>
+        <v>0.07914871886134131</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02199078210289005</v>
+        <v>0.02892098150923222</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>626863814.4856869</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1224337438.011584</v>
+        <v>1014959284.170841</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1207048352591989</v>
+        <v>0.1095752814675954</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03418281282869782</v>
+        <v>0.02900495934259043</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>612168745.8272581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4102254259.338367</v>
+        <v>3628196348.839654</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1448454167869349</v>
+        <v>0.122878510959075</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01924457837597979</v>
+        <v>0.01993208467447332</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2051127134.540139</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2393804190.975483</v>
+        <v>3646197618.581112</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1037847608240855</v>
+        <v>0.09978727423461232</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04742621085885031</v>
+        <v>0.03047380001013681</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1196902053.906757</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4399581421.963477</v>
+        <v>4481358259.778705</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1398256892062511</v>
+        <v>0.1262556101186561</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02940558459620958</v>
+        <v>0.04208998844875702</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2199790699.982713</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1704071417.794449</v>
+        <v>1910558148.152245</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08894227335921621</v>
+        <v>0.08871232569138965</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03472459437707875</v>
+        <v>0.04003735933209155</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>852035712.4674158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1500118138.575545</v>
+        <v>1414374957.098531</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08215072956226416</v>
+        <v>0.09106935350331687</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04272842018598785</v>
+        <v>0.04275513484708129</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>750058949.9276065</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1460035174.468742</v>
+        <v>1865152214.501319</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07320218539407104</v>
+        <v>0.1092900091422986</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03276294040859199</v>
+        <v>0.0288476994637537</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>730017647.1157801</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2173235668.631952</v>
+        <v>2320002263.280902</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2041363853867205</v>
+        <v>0.2011406607227077</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03789854543609883</v>
+        <v>0.04166238577723761</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1086617900.135737</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1175528592.149232</v>
+        <v>985445062.6595773</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1019779620019443</v>
+        <v>0.1004914147861352</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01726634917135683</v>
+        <v>0.026135860179413</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>587764304.9604522</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1183533988.263249</v>
+        <v>1278719243.430262</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0712024299760035</v>
+        <v>0.1012111598003857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03672221961986298</v>
+        <v>0.02730002686852305</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>591766972.2526886</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2844113548.187065</v>
+        <v>2728187647.572931</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1379857101745134</v>
+        <v>0.1501092663745361</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02097838683775329</v>
+        <v>0.02608087794529397</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1422056768.262043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2629897777.260026</v>
+        <v>1895723576.631281</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07485947047529688</v>
+        <v>0.1046853467905295</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02857307850250916</v>
+        <v>0.03143648929518315</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1314949002.355949</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1370557611.508559</v>
+        <v>1628722304.793423</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1176572746526008</v>
+        <v>0.07609150046281075</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02935078536966073</v>
+        <v>0.03054705401166474</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>685278873.0338705</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1493354462.559839</v>
+        <v>1740340615.578774</v>
       </c>
       <c r="F39" t="n">
-        <v>0.13183843779895</v>
+        <v>0.1889387394142918</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02851790441455287</v>
+        <v>0.02293296463688079</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>746677302.4853328</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1480569392.756218</v>
+        <v>1134491245.394541</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09861027655124344</v>
+        <v>0.1436828598042881</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0548624544486454</v>
+        <v>0.0473568674290362</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>740284667.2397497</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2885479479.429652</v>
+        <v>2117835600.725065</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1179682930895017</v>
+        <v>0.1194491023822853</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02866006454842834</v>
+        <v>0.04542586460950931</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1442739727.111201</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3719367633.329049</v>
+        <v>3243719559.768939</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1024417543993356</v>
+        <v>0.1044428968990749</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04510793088076125</v>
+        <v>0.04234407844993227</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1859683826.426235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2367979132.663644</v>
+        <v>2773041814.414831</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1803104020080507</v>
+        <v>0.1363085235524267</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01957058426957285</v>
+        <v>0.02074978837575319</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1183989628.057556</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2177527394.826595</v>
+        <v>2008016293.078689</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07656895092854335</v>
+        <v>0.09419324808664432</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02867093086224301</v>
+        <v>0.02446208279966904</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1088763838.957448</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1740283889.18759</v>
+        <v>1585189933.320185</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1192636194718744</v>
+        <v>0.1813830358032871</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05137948981012034</v>
+        <v>0.03770380218426984</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>870141909.1058105</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3912394712.555179</v>
+        <v>4089675370.960838</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1150800536046274</v>
+        <v>0.1502081564757679</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05779515146545585</v>
+        <v>0.05250052637645329</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1956197320.611034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4576294601.537455</v>
+        <v>4908007106.545362</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1276886134300499</v>
+        <v>0.1434717877500631</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04049170511227979</v>
+        <v>0.05113349061506667</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2288147332.397831</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3830452434.236144</v>
+        <v>4087207754.715632</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06984878849858588</v>
+        <v>0.1053392184653627</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02612253568682511</v>
+        <v>0.03451064860765007</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1915226261.140535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1226996095.112638</v>
+        <v>1902067844.681834</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1278007848535215</v>
+        <v>0.1662195544379263</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03688424896502442</v>
+        <v>0.04159943027343001</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>613498121.8609158</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3002370257.141685</v>
+        <v>3756293419.650177</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1141570479690981</v>
+        <v>0.1633642139141938</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03864653936513777</v>
+        <v>0.04040024104050927</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1501185188.048726</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>946377518.11017</v>
+        <v>1369088200.337452</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1765788218351588</v>
+        <v>0.169398940936401</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04749851644294674</v>
+        <v>0.05412654712184258</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>473188851.4696479</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4298087187.247937</v>
+        <v>4484053718.916068</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1310656124579385</v>
+        <v>0.1347379732004142</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04086419933868491</v>
+        <v>0.04370553008276573</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2149043632.361196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3475723119.522472</v>
+        <v>2885560866.331536</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1712412284447253</v>
+        <v>0.1380665645167795</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02266352470337142</v>
+        <v>0.02719365590438123</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1737861559.108937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3779930687.360528</v>
+        <v>4549574015.645655</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1537914649216618</v>
+        <v>0.1678186606849486</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04454079511228991</v>
+        <v>0.05117279239329278</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1889965390.271047</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3245330294.804245</v>
+        <v>4873077474.805255</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1521763916214237</v>
+        <v>0.2221680939237032</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02880006372461595</v>
+        <v>0.02240008563475243</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1622665088.819149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1274679347.409966</v>
+        <v>1856475260.774424</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1567848794472211</v>
+        <v>0.1119305789791708</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03763929963450034</v>
+        <v>0.03814098601521119</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>637339749.0864115</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4021961595.377184</v>
+        <v>3093267819.308583</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1136414287477129</v>
+        <v>0.1185730246286326</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01826102011159893</v>
+        <v>0.01666389814460531</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2010980887.669204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1359193340.016587</v>
+        <v>1898785959.196788</v>
       </c>
       <c r="F58" t="n">
-        <v>0.182707305722542</v>
+        <v>0.1717202229553421</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03407237930268275</v>
+        <v>0.03806113771871444</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>679596713.7764512</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4380882989.214593</v>
+        <v>3534384387.697668</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1175927511507848</v>
+        <v>0.1030552177946308</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03476188701880446</v>
+        <v>0.0408375255245516</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2190441451.975648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2837230596.254999</v>
+        <v>3016431390.18297</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2010977427696014</v>
+        <v>0.1484678774222856</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02852599972192873</v>
+        <v>0.02084839625689828</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1418615351.212306</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3157119995.650781</v>
+        <v>3275280417.444513</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1255623826292303</v>
+        <v>0.1490045569798431</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03067534504018615</v>
+        <v>0.02152077972397012</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1578559963.268339</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2117980679.152576</v>
+        <v>1529764464.332959</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1760455578560035</v>
+        <v>0.1909593959064568</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03060880293545517</v>
+        <v>0.0412367965686515</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1058990415.158984</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3461158680.253696</v>
+        <v>4402263682.436918</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08293048894645294</v>
+        <v>0.09097027503567795</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03065521959841174</v>
+        <v>0.02931516858728265</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1730579426.367321</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3431985784.365843</v>
+        <v>5079444301.534064</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1585546898163951</v>
+        <v>0.1671652158058617</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03257688587740334</v>
+        <v>0.0308489119119835</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1715992887.813461</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5724538324.387303</v>
+        <v>3715651755.287103</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1670070682954197</v>
+        <v>0.1746512011676758</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0197478758696107</v>
+        <v>0.02507955982829524</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>10</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2862269077.650334</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4383302392.220425</v>
+        <v>3831641248.511844</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1338749801667415</v>
+        <v>0.1015333432899876</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03988638294932972</v>
+        <v>0.04639687765155213</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2191651190.031095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2711043914.706801</v>
+        <v>3390423445.809183</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06237730672250541</v>
+        <v>0.06825499915831411</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04311116661412738</v>
+        <v>0.04765541572649569</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1355521999.843505</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5937799854.122938</v>
+        <v>6025617954.0663</v>
       </c>
       <c r="F68" t="n">
-        <v>0.132100571077375</v>
+        <v>0.1054696716204015</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04254280923952417</v>
+        <v>0.03828682980523027</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2968900040.062556</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2139533828.671478</v>
+        <v>1911188540.80806</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1605908197495512</v>
+        <v>0.1131664912605297</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03691735881606988</v>
+        <v>0.04664818323491001</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1069766937.11968</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3710641180.539939</v>
+        <v>2323412215.313628</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07492728736501807</v>
+        <v>0.08569319701186617</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0353735195698547</v>
+        <v>0.03465016764386865</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1855320613.296503</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3700704988.182148</v>
+        <v>3899531818.565688</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1854760882955784</v>
+        <v>0.1514353471786548</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03266591683274968</v>
+        <v>0.02765762533973368</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1850352502.612987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2139509851.864368</v>
+        <v>2045303281.071107</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1041085020954</v>
+        <v>0.09156459026073244</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03694587157359694</v>
+        <v>0.04156989974106117</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1069754849.482869</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2685745281.348618</v>
+        <v>2622297825.625403</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06788106437778139</v>
+        <v>0.09996223393155049</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04116039175722204</v>
+        <v>0.03361579700355403</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1342872665.223854</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2665195445.725057</v>
+        <v>3450705215.651906</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1769402459154635</v>
+        <v>0.1166916492729795</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03230319226897672</v>
+        <v>0.03196921618115501</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1332597817.004427</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2435035456.721047</v>
+        <v>1614677729.916335</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1525399954556434</v>
+        <v>0.1051351168033504</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02417311235675671</v>
+        <v>0.03363679772667798</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1217517651.450842</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3694460016.31714</v>
+        <v>5310287468.386101</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08530612767613961</v>
+        <v>0.08753548863363084</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02285695364996487</v>
+        <v>0.02546534901089965</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1847229979.860965</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2226398430.855931</v>
+        <v>2256777204.08911</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1579586478292495</v>
+        <v>0.1412125701674052</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0198895578225633</v>
+        <v>0.02585655711055015</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1113199310.157624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3905685991.297722</v>
+        <v>3301955821.061042</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1239125720509393</v>
+        <v>0.1139324422859347</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05467833144194164</v>
+        <v>0.04801212366186685</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1952842967.937195</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1657080240.279943</v>
+        <v>1748400989.406824</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1091824686948284</v>
+        <v>0.1098471963831902</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03660488501245367</v>
+        <v>0.02931057750265637</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>828540181.6153072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3563848397.180243</v>
+        <v>5425857108.804795</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07898686916452265</v>
+        <v>0.08500299676468895</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03039892093628331</v>
+        <v>0.03200620583341195</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1781924176.195145</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3938938942.073649</v>
+        <v>4625503437.291163</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09927989341034579</v>
+        <v>0.1198023260588984</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02383662116435629</v>
+        <v>0.02257159914348748</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1969469431.76493</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5678839235.250422</v>
+        <v>4098253876.183019</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1838319259716378</v>
+        <v>0.1834331439238311</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0280553823782941</v>
+        <v>0.01924782080332714</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2839419563.404456</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1644611393.058481</v>
+        <v>2220364565.267331</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1250071859156343</v>
+        <v>0.1419612924826179</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03349581342719352</v>
+        <v>0.03016949187197662</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>822305637.41475</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2359219891.318279</v>
+        <v>1622195894.203965</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07710068386296889</v>
+        <v>0.07557988025899924</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04995145415960315</v>
+        <v>0.04247945196447558</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1179609897.847096</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3134093608.850117</v>
+        <v>2828903450.082404</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1406843235994938</v>
+        <v>0.1444323481233878</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04930534563395798</v>
+        <v>0.04422398791639332</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>11</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1567046879.18223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2249468587.309704</v>
+        <v>1688268637.834244</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1558539260448043</v>
+        <v>0.1069696170079299</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01856557337199544</v>
+        <v>0.02284983242525378</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1124734355.778872</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1339386974.098724</v>
+        <v>1420665699.51463</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1655946313819036</v>
+        <v>0.1675965570078264</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02884896172401099</v>
+        <v>0.04139979908255253</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>669693578.1654831</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2447660546.924812</v>
+        <v>2523876965.996558</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1590780222238701</v>
+        <v>0.1332100013786919</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0340905944113959</v>
+        <v>0.02487781740524942</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1223830249.102372</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2652880843.848598</v>
+        <v>3010715384.252398</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1496816434023338</v>
+        <v>0.1170706678083578</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03774139405078468</v>
+        <v>0.03332002077726199</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1326440485.290648</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1639261835.532232</v>
+        <v>1874684548.035228</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09886114072169437</v>
+        <v>0.09539166644915109</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05151265230214494</v>
+        <v>0.04425555000806283</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>819630921.7493597</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2079579891.117714</v>
+        <v>2014632803.349382</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1838092092073651</v>
+        <v>0.1715808473649592</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05957913813538054</v>
+        <v>0.06148908900590485</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1039789906.956576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2017027680.705876</v>
+        <v>2341499257.290566</v>
       </c>
       <c r="F92" t="n">
-        <v>0.097124616809548</v>
+        <v>0.08980445801751046</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0295829619274174</v>
+        <v>0.0374767418254484</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1008513787.563819</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3834458796.074428</v>
+        <v>4450487801.798358</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1281535853832287</v>
+        <v>0.133188000703216</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05068776443723452</v>
+        <v>0.03553225203531369</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1917229409.161933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2103937430.15123</v>
+        <v>2401617693.283795</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1217340307285366</v>
+        <v>0.1149339667150277</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02723823660311859</v>
+        <v>0.03102894578988687</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1051968726.764995</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2874593882.313771</v>
+        <v>3137624737.324548</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0941174577315637</v>
+        <v>0.09193288546291428</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0458449037154649</v>
+        <v>0.0384310170614489</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1437296949.830858</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1705516105.78756</v>
+        <v>1692696822.449554</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1389443584515788</v>
+        <v>0.1271251601612043</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03676682471650657</v>
+        <v>0.03496037133518977</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>852758071.0970882</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5153939556.773367</v>
+        <v>3443905654.212694</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1579154650944131</v>
+        <v>0.116762584642143</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02194814203987448</v>
+        <v>0.01985312280693947</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2576969927.287187</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3259265274.039449</v>
+        <v>3100295927.599209</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08914282725529846</v>
+        <v>0.1262510121919413</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03017767472074533</v>
+        <v>0.02227898429570636</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1629632639.117183</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2901801483.025451</v>
+        <v>3041325222.756301</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1475507631533012</v>
+        <v>0.1311847899944951</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02493920326908983</v>
+        <v>0.023210048070455</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1450900720.138552</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3881239379.192675</v>
+        <v>4372943078.394252</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1642458035122762</v>
+        <v>0.1708136380797559</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01962302227731357</v>
+        <v>0.02553190505437771</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1940619750.590091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3089902215.695811</v>
+        <v>3499883662.828958</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2227088431612388</v>
+        <v>0.2150539635280723</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04795400262838859</v>
+        <v>0.05357944473500673</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>11</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1544951208.582049</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_29.xlsx
+++ b/output/fit_clients/fit_round_29.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1717126632.514052</v>
+        <v>1542383701.665432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07299557121318652</v>
+        <v>0.101355913462888</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03877800066813605</v>
+        <v>0.03574393027526607</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1994673998.057861</v>
+        <v>2386796326.312912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1709893760683637</v>
+        <v>0.1653494049350902</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03331313801556601</v>
+        <v>0.04440903341629907</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4420494256.883721</v>
+        <v>3224070465.396974</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1050848276538335</v>
+        <v>0.1624642875869173</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02597291483871855</v>
+        <v>0.03491220288872</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4010486891.586698</v>
+        <v>4044795758.976844</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07334014380110582</v>
+        <v>0.08768750768769244</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03476469252989005</v>
+        <v>0.04300866891538735</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1845189020.061485</v>
+        <v>2297111183.373723</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1044920135045686</v>
+        <v>0.1018909263337094</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04005722242308123</v>
+        <v>0.03785851781392881</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2024112463.58616</v>
+        <v>3063924075.039003</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08538920588252236</v>
+        <v>0.07657940466002068</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04462403711430305</v>
+        <v>0.04845283638380659</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3815972129.297309</v>
+        <v>3742752196.044401</v>
       </c>
       <c r="F8" t="n">
-        <v>0.176109707833172</v>
+        <v>0.1966490442379208</v>
       </c>
       <c r="G8" t="n">
-        <v>0.025132877463663</v>
+        <v>0.02303564608905609</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1636066183.242727</v>
+        <v>1601162466.536376</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1788238740900196</v>
+        <v>0.1730920121406401</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02989175064606632</v>
+        <v>0.03551416186550237</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5860846821.173018</v>
+        <v>3838533331.418483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2102366462964487</v>
+        <v>0.1378519981322391</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03964913945699711</v>
+        <v>0.05393153302567186</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3807466694.593554</v>
+        <v>3660226310.850434</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1551326396315333</v>
+        <v>0.1836847516941755</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03314107234579592</v>
+        <v>0.04230820537195606</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3128803508.338175</v>
+        <v>2590651029.896914</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1792484446868588</v>
+        <v>0.1972953616004798</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03845700282261809</v>
+        <v>0.04821850372604778</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4789415351.660971</v>
+        <v>4743607384.072084</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09330813370420762</v>
+        <v>0.1013197010115185</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02272568621866001</v>
+        <v>0.02104424420307721</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3519156056.066788</v>
+        <v>3379620146.205981</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1621765798110834</v>
+        <v>0.176791939229499</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02816636366477908</v>
+        <v>0.04069100124952402</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1140609579.263013</v>
+        <v>1367466476.333678</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07367521435556386</v>
+        <v>0.08747286798415009</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04003169326591839</v>
+        <v>0.049564267879407</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2629519762.023433</v>
+        <v>1859623858.964864</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09384724653729722</v>
+        <v>0.1000649272778431</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04255625866445667</v>
+        <v>0.04532785138105837</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3532573657.886698</v>
+        <v>4792393328.037151</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1389400378366303</v>
+        <v>0.1322692691045149</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04113476246686253</v>
+        <v>0.04067104226180011</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3294756840.384652</v>
+        <v>2522424644.535403</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1289640893666034</v>
+        <v>0.1181052231274193</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03270501154469509</v>
+        <v>0.02805659066885963</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1176177627.568477</v>
+        <v>920898618.6011358</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1391815626807825</v>
+        <v>0.1857626884337147</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02069173528883746</v>
+        <v>0.01777126167069713</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2343380999.820312</v>
+        <v>2291404358.931412</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1514411215319182</v>
+        <v>0.1079738017353481</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02379394467330134</v>
+        <v>0.03138911619115965</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1969526386.53493</v>
+        <v>2577031928.642183</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1015490135863371</v>
+        <v>0.09823221153355258</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03447921268443675</v>
+        <v>0.04224484815448042</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3360313919.934934</v>
+        <v>2868002891.743303</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09349966931304952</v>
+        <v>0.1227306436638908</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04248172940965763</v>
+        <v>0.05621229844568036</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1440168031.684384</v>
+        <v>1353746864.271028</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1683370597988844</v>
+        <v>0.1483913864489217</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05241324817494852</v>
+        <v>0.04974202804422646</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2860343591.98508</v>
+        <v>2608738635.336932</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1293415361526896</v>
+        <v>0.1083269264181696</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02900429972717771</v>
+        <v>0.02542792042002654</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1080934410.685387</v>
+        <v>940023054.0037361</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07914871886134131</v>
+        <v>0.100014110097233</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02892098150923222</v>
+        <v>0.0228454348454553</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1014959284.170841</v>
+        <v>938004285.5523984</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1095752814675954</v>
+        <v>0.08053390520862541</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02900495934259043</v>
+        <v>0.02622495806288187</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3628196348.839654</v>
+        <v>3304940126.021233</v>
       </c>
       <c r="F27" t="n">
-        <v>0.122878510959075</v>
+        <v>0.1432626605712919</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01993208467447332</v>
+        <v>0.01993122929474872</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3646197618.581112</v>
+        <v>3097200792.529179</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09978727423461232</v>
+        <v>0.1297106812082052</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03047380001013681</v>
+        <v>0.04494905295649172</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4481358259.778705</v>
+        <v>5448394535.558312</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1262556101186561</v>
+        <v>0.09137918809772272</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04208998844875702</v>
+        <v>0.03810925662217703</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1910558148.152245</v>
+        <v>2136179157.025749</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08871232569138965</v>
+        <v>0.09422959741911893</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04003735933209155</v>
+        <v>0.03252856010814259</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1414374957.098531</v>
+        <v>1013619136.210324</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09106935350331687</v>
+        <v>0.07526345386915301</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04275513484708129</v>
+        <v>0.03686319970656896</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1865152214.501319</v>
+        <v>1200267291.788501</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1092900091422986</v>
+        <v>0.09756131653336643</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0288476994637537</v>
+        <v>0.03702261829838659</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2320002263.280902</v>
+        <v>2421295834.781335</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2011406607227077</v>
+        <v>0.1398122537273464</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04166238577723761</v>
+        <v>0.04999084839777528</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>985445062.6595773</v>
+        <v>1173884147.54778</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1004914147861352</v>
+        <v>0.07694716886648861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.026135860179413</v>
+        <v>0.017143640856015</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1278719243.430262</v>
+        <v>1250478767.1195</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1012111598003857</v>
+        <v>0.08594241271703616</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02730002686852305</v>
+        <v>0.03792368467519246</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2728187647.572931</v>
+        <v>2452348816.075983</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1501092663745361</v>
+        <v>0.1764152955166572</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02608087794529397</v>
+        <v>0.02845849526532583</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1895723576.631281</v>
+        <v>2063121141.779518</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1046853467905295</v>
+        <v>0.09617191142492164</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03143648929518315</v>
+        <v>0.04157358091801431</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1628722304.793423</v>
+        <v>1833180923.889914</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07609150046281075</v>
+        <v>0.09659925363405236</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03054705401166474</v>
+        <v>0.03311539769591034</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1740340615.578774</v>
+        <v>2197738009.696015</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1889387394142918</v>
+        <v>0.1297092826787902</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02293296463688079</v>
+        <v>0.03019769525726603</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1134491245.394541</v>
+        <v>1319224655.68607</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1436828598042881</v>
+        <v>0.1273480814314688</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0473568674290362</v>
+        <v>0.0463849589507587</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2117835600.725065</v>
+        <v>2443901072.214279</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1194491023822853</v>
+        <v>0.148069343772522</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04542586460950931</v>
+        <v>0.0419142958641193</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3243719559.768939</v>
+        <v>3663772416.814623</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1044428968990749</v>
+        <v>0.08507617902480395</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04234407844993227</v>
+        <v>0.03742036423285138</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2773041814.414831</v>
+        <v>1958267839.281058</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1363085235524267</v>
+        <v>0.1474397299731418</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02074978837575319</v>
+        <v>0.02301241224753386</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2008016293.078689</v>
+        <v>2279356977.838903</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09419324808664432</v>
+        <v>0.09478628067675376</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02446208279966904</v>
+        <v>0.03056424756630218</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1585189933.320185</v>
+        <v>2195490840.692976</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1813830358032871</v>
+        <v>0.1902926906984783</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03770380218426984</v>
+        <v>0.04676627797660735</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4089675370.960838</v>
+        <v>3539989584.350339</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1502081564757679</v>
+        <v>0.1358797584027048</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05250052637645329</v>
+        <v>0.03698193790064083</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4908007106.545362</v>
+        <v>3661711691.813123</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1434717877500631</v>
+        <v>0.1562249714174981</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05113349061506667</v>
+        <v>0.05811151324070202</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4087207754.715632</v>
+        <v>3284910464.709717</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1053392184653627</v>
+        <v>0.08306185882330588</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03451064860765007</v>
+        <v>0.02730175207399954</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1902067844.681834</v>
+        <v>1504534535.555256</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1662195544379263</v>
+        <v>0.1501520770265033</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04159943027343001</v>
+        <v>0.02878542385591215</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3756293419.650177</v>
+        <v>4046353611.250488</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1633642139141938</v>
+        <v>0.1537382910375541</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04040024104050927</v>
+        <v>0.04147285922089845</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1369088200.337452</v>
+        <v>1414364718.438371</v>
       </c>
       <c r="F51" t="n">
-        <v>0.169398940936401</v>
+        <v>0.1451204697609535</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05412654712184258</v>
+        <v>0.03339717507118381</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4484053718.916068</v>
+        <v>3783375889.037572</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1347379732004142</v>
+        <v>0.086066038279346</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04370553008276573</v>
+        <v>0.0447658655526219</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2885560866.331536</v>
+        <v>3807691115.047193</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1380665645167795</v>
+        <v>0.1525524402704145</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02719365590438123</v>
+        <v>0.02464492257895683</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4549574015.645655</v>
+        <v>4782487578.133491</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1678186606849486</v>
+        <v>0.1034826854283133</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05117279239329278</v>
+        <v>0.04529860971947768</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4873077474.805255</v>
+        <v>4734929149.038534</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2221680939237032</v>
+        <v>0.1668390266300331</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02240008563475243</v>
+        <v>0.02881397391709072</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1856475260.774424</v>
+        <v>1458790083.550492</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1119305789791708</v>
+        <v>0.1168364092206354</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03814098601521119</v>
+        <v>0.04400130497685369</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3093267819.308583</v>
+        <v>3407909009.955624</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1185730246286326</v>
+        <v>0.1790214017881628</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01666389814460531</v>
+        <v>0.01746396534228964</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1898785959.196788</v>
+        <v>1817247611.863388</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1717202229553421</v>
+        <v>0.1472816338255776</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03806113771871444</v>
+        <v>0.02912539661285331</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3534384387.697668</v>
+        <v>4576767862.792233</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1030552177946308</v>
+        <v>0.08961882677817709</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0408375255245516</v>
+        <v>0.03293694800965586</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3016431390.18297</v>
+        <v>2451517527.268581</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1484678774222856</v>
+        <v>0.1306560298238406</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02084839625689828</v>
+        <v>0.02970854055831436</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3275280417.444513</v>
+        <v>2459806859.370816</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1490045569798431</v>
+        <v>0.1331447421606654</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02152077972397012</v>
+        <v>0.03195268931266909</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1529764464.332959</v>
+        <v>1629368347.462661</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1909593959064568</v>
+        <v>0.1810213147474261</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0412367965686515</v>
+        <v>0.03075210746992941</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4402263682.436918</v>
+        <v>3960278289.44846</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09097027503567795</v>
+        <v>0.06555668786566315</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02931516858728265</v>
+        <v>0.04596157470878967</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5079444301.534064</v>
+        <v>3423693184.518977</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1671652158058617</v>
+        <v>0.1916563303897394</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0308489119119835</v>
+        <v>0.03384788420070727</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3715651755.287103</v>
+        <v>4079487296.439123</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1746512011676758</v>
+        <v>0.1168993207391619</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02507955982829524</v>
+        <v>0.0310783758429789</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3831641248.511844</v>
+        <v>5494110997.274946</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1015333432899876</v>
+        <v>0.1311595620610115</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04639687765155213</v>
+        <v>0.03167880934838664</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3390423445.809183</v>
+        <v>2562125157.776933</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06825499915831411</v>
+        <v>0.06681585242155225</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04765541572649569</v>
+        <v>0.03688180301742915</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6025617954.0663</v>
+        <v>5532676712.227745</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1054696716204015</v>
+        <v>0.1481472908895597</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03828682980523027</v>
+        <v>0.05065718870363536</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1911188540.80806</v>
+        <v>1593453530.537503</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1131664912605297</v>
+        <v>0.1723536041318275</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04664818323491001</v>
+        <v>0.0593158944308636</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2323412215.313628</v>
+        <v>2280020169.024678</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08569319701186617</v>
+        <v>0.09186082821443507</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03465016764386865</v>
+        <v>0.04814089013854547</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3899531818.565688</v>
+        <v>5585352101.283848</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1514353471786548</v>
+        <v>0.1243203540482451</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02765762533973368</v>
+        <v>0.02053618988904236</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2045303281.071107</v>
+        <v>1816236487.864949</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09156459026073244</v>
+        <v>0.09460747645567033</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04156989974106117</v>
+        <v>0.03707818958649245</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2622297825.625403</v>
+        <v>3032139386.985179</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09996223393155049</v>
+        <v>0.07437451258988485</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03361579700355403</v>
+        <v>0.05081589538514551</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3450705215.651906</v>
+        <v>3010657155.0457</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1166916492729795</v>
+        <v>0.1202986928005687</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03196921618115501</v>
+        <v>0.02614226509010505</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1614677729.916335</v>
+        <v>2285223739.431454</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1051351168033504</v>
+        <v>0.1513790795491701</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03363679772667798</v>
+        <v>0.02724616745191432</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5310287468.386101</v>
+        <v>3744786388.930318</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08753548863363084</v>
+        <v>0.09864342542049213</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02546534901089965</v>
+        <v>0.02162082875596381</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2256777204.08911</v>
+        <v>1546337195.603554</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1412125701674052</v>
+        <v>0.1672342980253504</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02585655711055015</v>
+        <v>0.02763348682876187</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3301955821.061042</v>
+        <v>3251421394.088914</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1139324422859347</v>
+        <v>0.09299768988451046</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04801212366186685</v>
+        <v>0.05559219486775573</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1748400989.406824</v>
+        <v>1676303770.069197</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1098471963831902</v>
+        <v>0.1770896320022252</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02931057750265637</v>
+        <v>0.0316714117612006</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5425857108.804795</v>
+        <v>4640938758.670767</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08500299676468895</v>
+        <v>0.104230956568333</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03200620583341195</v>
+        <v>0.02929679171639874</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4625503437.291163</v>
+        <v>4927971275.415228</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1198023260588984</v>
+        <v>0.1350890395184768</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02257159914348748</v>
+        <v>0.0209178117308341</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4098253876.183019</v>
+        <v>5426493666.988947</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1834331439238311</v>
+        <v>0.1800473891148115</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01924782080332714</v>
+        <v>0.02395669821184831</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2220364565.267331</v>
+        <v>2405890265.249031</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1419612924826179</v>
+        <v>0.1014480893317329</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03016949187197662</v>
+        <v>0.04071026221969987</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1622195894.203965</v>
+        <v>1833379679.649173</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07557988025899924</v>
+        <v>0.07860174901704087</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04247945196447558</v>
+        <v>0.04469161227869084</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2828903450.082404</v>
+        <v>3637432478.437296</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1444323481233878</v>
+        <v>0.1502879479264506</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04422398791639332</v>
+        <v>0.0514702457367757</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1688268637.834244</v>
+        <v>2320022066.000861</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1069696170079299</v>
+        <v>0.16108758539313</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02284983242525378</v>
+        <v>0.02504047411752594</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1420665699.51463</v>
+        <v>1056685489.825785</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1675965570078264</v>
+        <v>0.1522563316500437</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04139979908255253</v>
+        <v>0.04040215430208664</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2523876965.996558</v>
+        <v>3736923223.883232</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1332100013786919</v>
+        <v>0.1292825850154952</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02487781740524942</v>
+        <v>0.02464824086932505</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3010715384.252398</v>
+        <v>3373735326.107983</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1170706678083578</v>
+        <v>0.1391021596548991</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03332002077726199</v>
+        <v>0.0393754927601687</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1874684548.035228</v>
+        <v>1342431558.925443</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09539166644915109</v>
+        <v>0.1020259686426555</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04425555000806283</v>
+        <v>0.04449118316485812</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2014632803.349382</v>
+        <v>1435309078.73415</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1715808473649592</v>
+        <v>0.1698266152716134</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06148908900590485</v>
+        <v>0.04800792711100986</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2341499257.290566</v>
+        <v>2386716297.444343</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08980445801751046</v>
+        <v>0.07745287445369843</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0374767418254484</v>
+        <v>0.04446855433553074</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4450487801.798358</v>
+        <v>4647798705.160451</v>
       </c>
       <c r="F93" t="n">
-        <v>0.133188000703216</v>
+        <v>0.1279237516248532</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03553225203531369</v>
+        <v>0.03734900620922708</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2401617693.283795</v>
+        <v>1814815161.660046</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1149339667150277</v>
+        <v>0.1372961537172504</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03102894578988687</v>
+        <v>0.03418710531632147</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3137624737.324548</v>
+        <v>2596994239.066267</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09193288546291428</v>
+        <v>0.08960036692446785</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0384310170614489</v>
+        <v>0.03616738849202832</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1692696822.449554</v>
+        <v>1790570996.021189</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1271251601612043</v>
+        <v>0.09799975016574083</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03496037133518977</v>
+        <v>0.04380349578714602</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3443905654.212694</v>
+        <v>3796090099.195263</v>
       </c>
       <c r="F97" t="n">
-        <v>0.116762584642143</v>
+        <v>0.1521038255735681</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01985312280693947</v>
+        <v>0.0181945095718629</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3100295927.599209</v>
+        <v>3915198409.547863</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1262510121919413</v>
+        <v>0.09499186580644027</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02227898429570636</v>
+        <v>0.02374763123541598</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3041325222.756301</v>
+        <v>2665324597.879811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1311847899944951</v>
+        <v>0.1277488579544104</v>
       </c>
       <c r="G99" t="n">
-        <v>0.023210048070455</v>
+        <v>0.03067320727448774</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4372943078.394252</v>
+        <v>3794502486.714502</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1708136380797559</v>
+        <v>0.1780750544410431</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02553190505437771</v>
+        <v>0.01944341058629602</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3499883662.828958</v>
+        <v>3107809237.548021</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2150539635280723</v>
+        <v>0.2228183339529578</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05357944473500673</v>
+        <v>0.05160605693887681</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_29.xlsx
+++ b/output/fit_clients/fit_round_29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1542383701.665432</v>
+        <v>2302929874.935884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101355913462888</v>
+        <v>0.1081234004160762</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03574393027526607</v>
+        <v>0.04497320367238385</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2386796326.312912</v>
+        <v>2153052863.64431</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1653494049350902</v>
+        <v>0.1477519980962823</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04440903341629907</v>
+        <v>0.03970375986581271</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3224070465.396974</v>
+        <v>3243385454.263746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1624642875869173</v>
+        <v>0.1498729457300749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03491220288872</v>
+        <v>0.03334831570580542</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28</v>
+      </c>
+      <c r="K4" t="n">
+        <v>165.2189485503724</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4044795758.976844</v>
+        <v>3071996524.925023</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08768750768769244</v>
+        <v>0.07950675709387675</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04300866891538735</v>
+        <v>0.04723731183688524</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>28</v>
+      </c>
+      <c r="K5" t="n">
+        <v>154.0931259788698</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2297111183.373723</v>
+        <v>2455172703.275253</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1018909263337094</v>
+        <v>0.1011757654894735</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03785851781392881</v>
+        <v>0.04748010051461072</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3063924075.039003</v>
+        <v>3056187307.856254</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07657940466002068</v>
+        <v>0.07049584844933901</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04845283638380659</v>
+        <v>0.04448854838021895</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3742752196.044401</v>
+        <v>3821047910.502195</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1966490442379208</v>
+        <v>0.197170311743622</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02303564608905609</v>
+        <v>0.0317015218254792</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1601162466.536376</v>
+        <v>1753369814.733782</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1730920121406401</v>
+        <v>0.1576007040923979</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03551416186550237</v>
+        <v>0.03257520142374035</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3838533331.418483</v>
+        <v>5729784352.407383</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1378519981322391</v>
+        <v>0.188303065070077</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05393153302567186</v>
+        <v>0.04756161763828928</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.7885120717809</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3660226310.850434</v>
+        <v>4056491058.219211</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1836847516941755</v>
+        <v>0.1420483321120204</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04230820537195606</v>
+        <v>0.04340302853292605</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>29</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2590651029.896914</v>
+        <v>3110886841.719599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1972953616004798</v>
+        <v>0.1570308745269139</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04821850372604778</v>
+        <v>0.0509021873149092</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4743607384.072084</v>
+        <v>3990705883.345291</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1013197010115185</v>
+        <v>0.06358508567938349</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02104424420307721</v>
+        <v>0.02489603713087037</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>29</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3379620146.205981</v>
+        <v>2489936527.535156</v>
       </c>
       <c r="F14" t="n">
-        <v>0.176791939229499</v>
+        <v>0.1881182955885073</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04069100124952402</v>
+        <v>0.0407858260647909</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1367466476.333678</v>
+        <v>1280911037.722435</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08747286798415009</v>
+        <v>0.08032295907400427</v>
       </c>
       <c r="G15" t="n">
-        <v>0.049564267879407</v>
+        <v>0.04864522350204834</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1859623858.964864</v>
+        <v>1859384874.857371</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1000649272778431</v>
+        <v>0.1141658165455353</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04532785138105837</v>
+        <v>0.05142375800040175</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4792393328.037151</v>
+        <v>4787439648.085463</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1322692691045149</v>
+        <v>0.1464112386897573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04067104226180011</v>
+        <v>0.05030214522409434</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>28</v>
+      </c>
+      <c r="K17" t="n">
+        <v>197.6147617817121</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2522424644.535403</v>
+        <v>3818566568.631419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1181052231274193</v>
+        <v>0.1169957544931464</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02805659066885963</v>
+        <v>0.02684166854832791</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>920898618.6011358</v>
+        <v>1301891454.383145</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1857626884337147</v>
+        <v>0.1739313086416441</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01777126167069713</v>
+        <v>0.02077581594102993</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2291404358.931412</v>
+        <v>2550730354.995383</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1079738017353481</v>
+        <v>0.1551232335146503</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03138911619115965</v>
+        <v>0.02827316330450846</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2577031928.642183</v>
+        <v>1911874131.27962</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09823221153355258</v>
+        <v>0.09816380773778681</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04224484815448042</v>
+        <v>0.03088072226340859</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2868002891.743303</v>
+        <v>2736711295.20345</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1227306436638908</v>
+        <v>0.1122683968685348</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05621229844568036</v>
+        <v>0.03682081307861797</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>28</v>
+      </c>
+      <c r="K22" t="n">
+        <v>102.3677505183064</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1353746864.271028</v>
+        <v>1116575763.636205</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1483913864489217</v>
+        <v>0.1354059862990055</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04974202804422646</v>
+        <v>0.03858181297665566</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2608738635.336932</v>
+        <v>2694564251.397281</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1083269264181696</v>
+        <v>0.1414211331346943</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02542792042002654</v>
+        <v>0.03362548979337723</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>28</v>
+      </c>
+      <c r="K24" t="n">
+        <v>104.5419943183524</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>940023054.0037361</v>
+        <v>1449181886.542507</v>
       </c>
       <c r="F25" t="n">
-        <v>0.100014110097233</v>
+        <v>0.07633814462933343</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0228454348454553</v>
+        <v>0.02054568064344954</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>938004285.5523984</v>
+        <v>1455084210.041178</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08053390520862541</v>
+        <v>0.07564917578889907</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02622495806288187</v>
+        <v>0.0379382627153548</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3304940126.021233</v>
+        <v>3078355327.936732</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1432626605712919</v>
+        <v>0.1389670213981982</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01993122929474872</v>
+        <v>0.02056165235780696</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1417,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3097200792.529179</v>
+        <v>2928682791.156712</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1297106812082052</v>
+        <v>0.1427024117281551</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04494905295649172</v>
+        <v>0.04482966729043494</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>28</v>
+      </c>
+      <c r="K28" t="n">
+        <v>130.914099395603</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5448394535.558312</v>
+        <v>4474239963.551515</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09137918809772272</v>
+        <v>0.1325465892820756</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03810925662217703</v>
+        <v>0.04354248512925398</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>29</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.8556199142156</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2136179157.025749</v>
+        <v>1785618827.627908</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09422959741911893</v>
+        <v>0.1169702636189056</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03252856010814259</v>
+        <v>0.03693377884348441</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1013619136.210324</v>
+        <v>1360241842.176227</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07526345386915301</v>
+        <v>0.07421112548721229</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03686319970656896</v>
+        <v>0.04638325442149478</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1200267291.788501</v>
+        <v>1149705667.926332</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09756131653336643</v>
+        <v>0.0870456234223614</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03702261829838659</v>
+        <v>0.02643343594043352</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2421295834.781335</v>
+        <v>2539994882.110552</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1398122537273464</v>
+        <v>0.1924028306075848</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04999084839777528</v>
+        <v>0.05058716798145172</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1173884147.54778</v>
+        <v>1421913650.773377</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07694716886648861</v>
+        <v>0.1088399174109621</v>
       </c>
       <c r="G34" t="n">
-        <v>0.017143640856015</v>
+        <v>0.02435134291924219</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1250478767.1195</v>
+        <v>951488315.209502</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08594241271703616</v>
+        <v>0.09635241124313766</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03792368467519246</v>
+        <v>0.0273599518164865</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2452348816.075983</v>
+        <v>3027306338.24954</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1764152955166572</v>
+        <v>0.1437418730892309</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02845849526532583</v>
+        <v>0.02232464726133997</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2063121141.779518</v>
+        <v>2753253073.686957</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09617191142492164</v>
+        <v>0.107345083957328</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04157358091801431</v>
+        <v>0.03644654623397966</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1833180923.889914</v>
+        <v>1618196910.024871</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09659925363405236</v>
+        <v>0.09626027936932004</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03311539769591034</v>
+        <v>0.03428965146452754</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2197738009.696015</v>
+        <v>1799453653.772584</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1297092826787902</v>
+        <v>0.1282879828203365</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03019769525726603</v>
+        <v>0.02322188942140231</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1319224655.68607</v>
+        <v>1175904893.372385</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1273480814314688</v>
+        <v>0.1159979971047752</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0463849589507587</v>
+        <v>0.04364246726057992</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2443901072.214279</v>
+        <v>2021819681.092233</v>
       </c>
       <c r="F41" t="n">
-        <v>0.148069343772522</v>
+        <v>0.151372229079377</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0419142958641193</v>
+        <v>0.03670048619400722</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3663772416.814623</v>
+        <v>4088815608.842809</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08507617902480395</v>
+        <v>0.07989318102975521</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03742036423285138</v>
+        <v>0.04615906065983928</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>29</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1958267839.281058</v>
+        <v>2641131974.907015</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1474397299731418</v>
+        <v>0.1458846911632954</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02301241224753386</v>
+        <v>0.02351450557738706</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2279356977.838903</v>
+        <v>1799413117.023652</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09478628067675376</v>
+        <v>0.1008597889957485</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03056424756630218</v>
+        <v>0.03276301501349692</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2195490840.692976</v>
+        <v>2274593797.493169</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1902926906984783</v>
+        <v>0.1197221880045707</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04676627797660735</v>
+        <v>0.04789037870102456</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3539989584.350339</v>
+        <v>3944874234.116685</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1358797584027048</v>
+        <v>0.1339859077710034</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03698193790064083</v>
+        <v>0.05506039636425058</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>16</v>
+      </c>
+      <c r="J46" t="n">
+        <v>29</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3661711691.813123</v>
+        <v>5091331796.632333</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1562249714174981</v>
+        <v>0.1995118155227714</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05811151324070202</v>
+        <v>0.04922926453351422</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>28</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.4700153314437</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3284910464.709717</v>
+        <v>4066289315.909694</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08306185882330588</v>
+        <v>0.1039601668549891</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02730175207399954</v>
+        <v>0.02908914165125874</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>29</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1504534535.555256</v>
+        <v>1438088422.657954</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1501520770265033</v>
+        <v>0.1398084973288172</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02878542385591215</v>
+        <v>0.02902646240365706</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4046353611.250488</v>
+        <v>3203916329.585734</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1537382910375541</v>
+        <v>0.1660523507696772</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04147285922089845</v>
+        <v>0.03286380865123683</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>28</v>
+      </c>
+      <c r="K50" t="n">
+        <v>159.1609021491359</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1414364718.438371</v>
+        <v>959200653.1463615</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1451204697609535</v>
+        <v>0.1462782798611134</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03339717507118381</v>
+        <v>0.05309662371801382</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3783375889.037572</v>
+        <v>4340770884.668556</v>
       </c>
       <c r="F52" t="n">
-        <v>0.086066038279346</v>
+        <v>0.1192625678909602</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0447658655526219</v>
+        <v>0.06083177404380606</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>22</v>
+      </c>
+      <c r="J52" t="n">
+        <v>29</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.3184244995101</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3807691115.047193</v>
+        <v>3554129344.909093</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1525524402704145</v>
+        <v>0.1415180415065935</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02464492257895683</v>
+        <v>0.03476010241305431</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>27</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4782487578.133491</v>
+        <v>3236752069.189988</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1034826854283133</v>
+        <v>0.1699200096560206</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04529860971947768</v>
+        <v>0.05064767381855596</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>28</v>
+      </c>
+      <c r="K54" t="n">
+        <v>160.3315212979947</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4734929149.038534</v>
+        <v>4671414727.684613</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1668390266300331</v>
+        <v>0.1955661727217726</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02881397391709072</v>
+        <v>0.02400936209670059</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>13</v>
+      </c>
+      <c r="J55" t="n">
+        <v>29</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1458790083.550492</v>
+        <v>1314353450.107029</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1168364092206354</v>
+        <v>0.1608608743496109</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04400130497685369</v>
+        <v>0.03537710567613342</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2450,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3407909009.955624</v>
+        <v>3315189686.966882</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1790214017881628</v>
+        <v>0.1189800464250455</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01746396534228964</v>
+        <v>0.01786627459151584</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>28</v>
+      </c>
+      <c r="K57" t="n">
+        <v>161.4244105401403</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1817247611.863388</v>
+        <v>1649357764.354465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1472816338255776</v>
+        <v>0.1947678557394743</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02912539661285331</v>
+        <v>0.03966571549484603</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2522,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4576767862.792233</v>
+        <v>4012999181.656916</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08961882677817709</v>
+        <v>0.1006665565441758</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03293694800965586</v>
+        <v>0.04785912204709199</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>29</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2451517527.268581</v>
+        <v>2739535892.544998</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1306560298238406</v>
+        <v>0.1647326275738828</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02970854055831436</v>
+        <v>0.02343541269647927</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>27</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2459806859.370816</v>
+        <v>2082606665.795001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1331447421606654</v>
+        <v>0.1198344554890565</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03195268931266909</v>
+        <v>0.025030842273644</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1629368347.462661</v>
+        <v>1354299610.523005</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1810213147474261</v>
+        <v>0.1439702188583944</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03075210746992941</v>
+        <v>0.0419986703752196</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3960278289.44846</v>
+        <v>4065622169.187501</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06555668786566315</v>
+        <v>0.07537638786052087</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04596157470878967</v>
+        <v>0.04681717308147301</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>28</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.1066638125491</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2699,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3423693184.518977</v>
+        <v>3916195171.359056</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1916563303897394</v>
+        <v>0.1817693045716444</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03384788420070727</v>
+        <v>0.02543014752235568</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>14</v>
+      </c>
+      <c r="J64" t="n">
+        <v>29</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4079487296.439123</v>
+        <v>5736161404.086504</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1168993207391619</v>
+        <v>0.1365094239195593</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0310783758429789</v>
+        <v>0.02744646652047351</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>24</v>
+      </c>
+      <c r="J65" t="n">
+        <v>29</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.2449395423359</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5494110997.274946</v>
+        <v>5191547277.030412</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1311595620610115</v>
+        <v>0.1473035340485275</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03167880934838664</v>
+        <v>0.04315907390117129</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>14</v>
+      </c>
+      <c r="J66" t="n">
+        <v>29</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2562125157.776933</v>
+        <v>3359199499.333469</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06681585242155225</v>
+        <v>0.08522123921746949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03688180301742915</v>
+        <v>0.03318894314856954</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5532676712.227745</v>
+        <v>5734041050.718279</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1481472908895597</v>
+        <v>0.152654429367734</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05065718870363536</v>
+        <v>0.04155473362038026</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>14</v>
+      </c>
+      <c r="J68" t="n">
+        <v>29</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1593453530.537503</v>
+        <v>1517200049.479548</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1723536041318275</v>
+        <v>0.1149611981405381</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0593158944308636</v>
+        <v>0.03895633783768482</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2280020169.024678</v>
+        <v>2359630521.957385</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09186082821443507</v>
+        <v>0.1007436629482474</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04814089013854547</v>
+        <v>0.04124056085074679</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5585352101.283848</v>
+        <v>4667039676.004173</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1243203540482451</v>
+        <v>0.127313954740375</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02053618988904236</v>
+        <v>0.0258706462520897</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>23</v>
+      </c>
+      <c r="J71" t="n">
+        <v>29</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.3245963184736</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1816236487.864949</v>
+        <v>2015861787.197708</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09460747645567033</v>
+        <v>0.08422716989056932</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03707818958649245</v>
+        <v>0.05313133404264344</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3032139386.985179</v>
+        <v>2596450017.145462</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07437451258988485</v>
+        <v>0.07253639452963824</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05081589538514551</v>
+        <v>0.04360289822201613</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3010657155.0457</v>
+        <v>3878833891.310314</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1202986928005687</v>
+        <v>0.1400145121501852</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02614226509010505</v>
+        <v>0.0252965254746753</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>29</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2285223739.431454</v>
+        <v>1707260535.141859</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1513790795491701</v>
+        <v>0.152587928186902</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02724616745191432</v>
+        <v>0.02836261749000221</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3744786388.930318</v>
+        <v>4788562655.395505</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09864342542049213</v>
+        <v>0.09513308728239182</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02162082875596381</v>
+        <v>0.02483048943948797</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>13</v>
+      </c>
+      <c r="J76" t="n">
+        <v>29</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1546337195.603554</v>
+        <v>1996783298.444409</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1672342980253504</v>
+        <v>0.113433156439086</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02763348682876187</v>
+        <v>0.02612533991151281</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3251421394.088914</v>
+        <v>3719743844.954403</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09299768988451046</v>
+        <v>0.08464891888484818</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05559219486775573</v>
+        <v>0.05583466161651678</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12</v>
+      </c>
+      <c r="J78" t="n">
+        <v>28</v>
+      </c>
+      <c r="K78" t="n">
+        <v>213.6835550201001</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1676303770.069197</v>
+        <v>1666814404.085158</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1770896320022252</v>
+        <v>0.1630700321992431</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0316714117612006</v>
+        <v>0.02852446891221982</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4640938758.670767</v>
+        <v>5352583804.156954</v>
       </c>
       <c r="F80" t="n">
-        <v>0.104230956568333</v>
+        <v>0.0817056317432535</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02929679171639874</v>
+        <v>0.03195847409655102</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>28</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.4399220120291</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4927971275.415228</v>
+        <v>3308970857.595987</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1350890395184768</v>
+        <v>0.1305082595476834</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0209178117308341</v>
+        <v>0.02047801938354828</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>25</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5426493666.988947</v>
+        <v>3682844158.27627</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1800473891148115</v>
+        <v>0.1622890442511197</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02395669821184831</v>
+        <v>0.01967925483297592</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15</v>
+      </c>
+      <c r="J82" t="n">
+        <v>28</v>
+      </c>
+      <c r="K82" t="n">
+        <v>211.4287164801279</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2405890265.249031</v>
+        <v>1676928936.677194</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1014480893317329</v>
+        <v>0.1031184658351831</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04071026221969987</v>
+        <v>0.03994369971881676</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1833379679.649173</v>
+        <v>2322997925.223781</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07860174901704087</v>
+        <v>0.09647331191091418</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04469161227869084</v>
+        <v>0.04763679271627266</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3637432478.437296</v>
+        <v>3599547851.537442</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1502879479264506</v>
+        <v>0.1247999833146717</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0514702457367757</v>
+        <v>0.05141828359526576</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>27</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2320022066.000861</v>
+        <v>2002739757.86834</v>
       </c>
       <c r="F86" t="n">
-        <v>0.16108758539313</v>
+        <v>0.1697297015287316</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02504047411752594</v>
+        <v>0.01668100886709843</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1056685489.825785</v>
+        <v>1113029157.985895</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1522563316500437</v>
+        <v>0.1547641709077429</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04040215430208664</v>
+        <v>0.03856487566951014</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3736923223.883232</v>
+        <v>3483787530.407287</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1292825850154952</v>
+        <v>0.1495756794850376</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02464824086932505</v>
+        <v>0.03849052583796486</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3373735326.107983</v>
+        <v>2521361158.478037</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1391021596548991</v>
+        <v>0.1077944849406933</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0393754927601687</v>
+        <v>0.0412635403607816</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1342431558.925443</v>
+        <v>1919634310.896882</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1020259686426555</v>
+        <v>0.1367125848608869</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04449118316485812</v>
+        <v>0.04328632353288906</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1435309078.73415</v>
+        <v>1589069156.806961</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1698266152716134</v>
+        <v>0.1521658485943516</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04800792711100986</v>
+        <v>0.04937209009680238</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2386716297.444343</v>
+        <v>2362485613.216412</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07745287445369843</v>
+        <v>0.06869394521186062</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04446855433553074</v>
+        <v>0.04024143057285608</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4647798705.160451</v>
+        <v>4995848001.0734</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1279237516248532</v>
+        <v>0.1111810660186262</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03734900620922708</v>
+        <v>0.04879053228308725</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>12</v>
+      </c>
+      <c r="J93" t="n">
+        <v>29</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1814815161.660046</v>
+        <v>1574731928.242416</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1372961537172504</v>
+        <v>0.1596740756589639</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03418710531632147</v>
+        <v>0.0358960555002546</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2596994239.066267</v>
+        <v>2702343628.692424</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08960036692446785</v>
+        <v>0.1186145193738983</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03616738849202832</v>
+        <v>0.03434578228826794</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1790570996.021189</v>
+        <v>1596197447.103213</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09799975016574083</v>
+        <v>0.09891082295879179</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04380349578714602</v>
+        <v>0.03192117141538808</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3796090099.195263</v>
+        <v>3706276892.846995</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1521038255735681</v>
+        <v>0.1428559466280861</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0181945095718629</v>
+        <v>0.02463849332669567</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14</v>
+      </c>
+      <c r="J97" t="n">
+        <v>28</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.4315706974739</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3915198409.547863</v>
+        <v>2769375586.054128</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09499186580644027</v>
+        <v>0.1150507922331528</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02374763123541598</v>
+        <v>0.02236288058969937</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>26</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2665324597.879811</v>
+        <v>3033429006.091002</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1277488579544104</v>
+        <v>0.1057612144227264</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03067320727448774</v>
+        <v>0.03545259788866431</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3794502486.714502</v>
+        <v>4549987549.735888</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1780750544410431</v>
+        <v>0.1091774181866055</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01944341058629602</v>
+        <v>0.0280235130230514</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13</v>
+      </c>
+      <c r="J100" t="n">
+        <v>29</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3107809237.548021</v>
+        <v>3430584399.110204</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2228183339529578</v>
+        <v>0.1899278978644222</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05160605693887681</v>
+        <v>0.04989648833586487</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
